--- a/data_20_customers_center_depot.xlsx
+++ b/data_20_customers_center_depot.xlsx
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.86612147113708</v>
+        <v>43.63828043098913</v>
       </c>
       <c r="C3" t="n">
-        <v>85.8024844809418</v>
+        <v>53.40348441599102</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.38429030280785</v>
+        <v>40.46169269820339</v>
       </c>
       <c r="C4" t="n">
-        <v>43.54307678222938</v>
+        <v>59.68971248363447</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -523,13 +523,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56.68169555213699</v>
+        <v>61.40948012513092</v>
       </c>
       <c r="C5" t="n">
-        <v>42.8070004935316</v>
+        <v>67.96929387023522</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56.34317943669176</v>
+        <v>72.5959598806465</v>
       </c>
       <c r="C6" t="n">
-        <v>9.205313116267732</v>
+        <v>4.525601037273552</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97.36871105898832</v>
+        <v>32.12229708279939</v>
       </c>
       <c r="C7" t="n">
-        <v>88.74912525330555</v>
+        <v>83.30264894890998</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -580,13 +580,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.301482026722962</v>
+        <v>89.71662435506138</v>
       </c>
       <c r="C8" t="n">
-        <v>41.30267986529694</v>
+        <v>55.38146728089094</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -599,13 +599,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69.18674653693225</v>
+        <v>84.00671518492791</v>
       </c>
       <c r="C9" t="n">
-        <v>9.802736141405521</v>
+        <v>69.46174926268799</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.72541705960188</v>
+        <v>92.35075287684481</v>
       </c>
       <c r="C10" t="n">
-        <v>92.30771770787206</v>
+        <v>65.40968417202527</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.95267035056324</v>
+        <v>3.35930894695039</v>
       </c>
       <c r="C11" t="n">
-        <v>89.18732261302682</v>
+        <v>90.49476777656713</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>85.47458837849874</v>
+        <v>1.811708434981762</v>
       </c>
       <c r="C12" t="n">
-        <v>13.05759831205248</v>
+        <v>72.56123668646423</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.65172545223799</v>
+        <v>15.68374335613368</v>
       </c>
       <c r="C13" t="n">
-        <v>68.34654269852012</v>
+        <v>96.99816811089728</v>
       </c>
       <c r="D13" t="n">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1604414455035</v>
+        <v>14.54241773953047</v>
       </c>
       <c r="C14" t="n">
-        <v>96.02252797444692</v>
+        <v>33.0267872737214</v>
       </c>
       <c r="D14" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -713,13 +713,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0971769765306</v>
+        <v>74.66946250294423</v>
       </c>
       <c r="C15" t="n">
-        <v>40.06968830497762</v>
+        <v>80.36429389931386</v>
       </c>
       <c r="D15" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>53.22129797798927</v>
+        <v>1.863753233506282</v>
       </c>
       <c r="C16" t="n">
-        <v>3.613691550464393</v>
+        <v>31.18513060821644</v>
       </c>
       <c r="D16" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -751,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.58893108532531</v>
+        <v>22.55504752309873</v>
       </c>
       <c r="C17" t="n">
-        <v>14.45500960496311</v>
+        <v>45.91854307708025</v>
       </c>
       <c r="D17" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -770,13 +770,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.33912008339415</v>
+        <v>91.78178134904645</v>
       </c>
       <c r="C18" t="n">
-        <v>1.496451779118413</v>
+        <v>64.75871878579636</v>
       </c>
       <c r="D18" t="n">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -789,13 +789,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37.12652969269035</v>
+        <v>27.76903037133005</v>
       </c>
       <c r="C19" t="n">
-        <v>7.696477951622304</v>
+        <v>92.00673114120083</v>
       </c>
       <c r="D19" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -808,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68.38863236680376</v>
+        <v>92.21029657851753</v>
       </c>
       <c r="C20" t="n">
-        <v>84.5180421814396</v>
+        <v>86.02162822747273</v>
       </c>
       <c r="D20" t="n">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69.93026887443537</v>
+        <v>50.95803666777042</v>
       </c>
       <c r="C21" t="n">
-        <v>77.13270152874102</v>
+        <v>2.811473948341792</v>
       </c>
       <c r="D21" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.74751282033746</v>
+        <v>24.94367259056567</v>
       </c>
       <c r="C22" t="n">
-        <v>65.49910735228862</v>
+        <v>65.76204172592713</v>
       </c>
       <c r="D22" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
